--- a/map_Monde/Pour mémoire.xlsx
+++ b/map_Monde/Pour mémoire.xlsx
@@ -8,12 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\mymaps\Github\mymaps\map_Monde\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EED2A9B2-BF14-489B-8DA6-506F1F96519A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEA4F14B-8434-41E6-B8A2-74727F625DAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Feuil2" sheetId="2" r:id="rId1"/>
+    <sheet name="Europe" sheetId="2" r:id="rId1"/>
+    <sheet name="Asie" sheetId="3" r:id="rId2"/>
+    <sheet name="Amérique" sheetId="4" r:id="rId3"/>
+    <sheet name="Afrique" sheetId="5" r:id="rId4"/>
+    <sheet name="Pacifique" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="245">
   <si>
     <t>Europe</t>
   </si>
@@ -91,6 +95,675 @@
   </si>
   <si>
     <t>Estonie</t>
+  </si>
+  <si>
+    <t>Ile de Man</t>
+  </si>
+  <si>
+    <t>Saint-Marin</t>
+  </si>
+  <si>
+    <t>Vatican</t>
+  </si>
+  <si>
+    <t>Chypre</t>
+  </si>
+  <si>
+    <t>Europe centrale</t>
+  </si>
+  <si>
+    <t>Allemagne</t>
+  </si>
+  <si>
+    <t>Suisse</t>
+  </si>
+  <si>
+    <t>Autriche</t>
+  </si>
+  <si>
+    <t>Liechtenstein</t>
+  </si>
+  <si>
+    <t>Tchéquie</t>
+  </si>
+  <si>
+    <t>Slovaquie</t>
+  </si>
+  <si>
+    <t>Pologne</t>
+  </si>
+  <si>
+    <t>Hongrie</t>
+  </si>
+  <si>
+    <t>Europe de l'Est</t>
+  </si>
+  <si>
+    <t>Lettonie</t>
+  </si>
+  <si>
+    <t>Lithuanie</t>
+  </si>
+  <si>
+    <t>Belarus</t>
+  </si>
+  <si>
+    <t>Ukraine</t>
+  </si>
+  <si>
+    <t>Moldavie</t>
+  </si>
+  <si>
+    <t>Roumanie</t>
+  </si>
+  <si>
+    <t>Russie</t>
+  </si>
+  <si>
+    <t>Balkans</t>
+  </si>
+  <si>
+    <t>Slovénie</t>
+  </si>
+  <si>
+    <t>Croatie</t>
+  </si>
+  <si>
+    <t>Serbie</t>
+  </si>
+  <si>
+    <t>Bosnie-Herzégovine</t>
+  </si>
+  <si>
+    <t>Montenegro</t>
+  </si>
+  <si>
+    <t>Kosovo</t>
+  </si>
+  <si>
+    <t>Albanie</t>
+  </si>
+  <si>
+    <t>Macédoine du Nord</t>
+  </si>
+  <si>
+    <t>Bulgarie</t>
+  </si>
+  <si>
+    <t>Caucase</t>
+  </si>
+  <si>
+    <t>Georgie</t>
+  </si>
+  <si>
+    <t>Arménie</t>
+  </si>
+  <si>
+    <t>Azerbaidjan</t>
+  </si>
+  <si>
+    <t>Asie de l'Est</t>
+  </si>
+  <si>
+    <t>Japon</t>
+  </si>
+  <si>
+    <t>Corée du Nord</t>
+  </si>
+  <si>
+    <t>Corée du Sud</t>
+  </si>
+  <si>
+    <t>Chine</t>
+  </si>
+  <si>
+    <t>Taiwan</t>
+  </si>
+  <si>
+    <t>Asie du Sud-Est</t>
+  </si>
+  <si>
+    <t>Laos</t>
+  </si>
+  <si>
+    <t>Cambodge</t>
+  </si>
+  <si>
+    <t>Myanmar</t>
+  </si>
+  <si>
+    <t>Thailande</t>
+  </si>
+  <si>
+    <t>VietNam</t>
+  </si>
+  <si>
+    <t>Malaisie</t>
+  </si>
+  <si>
+    <t>Brunei</t>
+  </si>
+  <si>
+    <t>Philippines</t>
+  </si>
+  <si>
+    <t>Indonésie</t>
+  </si>
+  <si>
+    <t>Timor-Leste</t>
+  </si>
+  <si>
+    <t>Papouasie nouvelle Guinée</t>
+  </si>
+  <si>
+    <t>Asie du Sud</t>
+  </si>
+  <si>
+    <t>Pakistan</t>
+  </si>
+  <si>
+    <t>Inde</t>
+  </si>
+  <si>
+    <t>Népal</t>
+  </si>
+  <si>
+    <t>Bangladesh</t>
+  </si>
+  <si>
+    <t>Sri-Lanka</t>
+  </si>
+  <si>
+    <t>Bhoutan</t>
+  </si>
+  <si>
+    <t>Maldives</t>
+  </si>
+  <si>
+    <t>Asie du Nord</t>
+  </si>
+  <si>
+    <t>Kazakhstan</t>
+  </si>
+  <si>
+    <t>Mongolie</t>
+  </si>
+  <si>
+    <t>Asie Centrale</t>
+  </si>
+  <si>
+    <t>Ouzbékistan</t>
+  </si>
+  <si>
+    <t>Kyrgyzstan</t>
+  </si>
+  <si>
+    <t>Tadjikistan</t>
+  </si>
+  <si>
+    <t>Turkménistan</t>
+  </si>
+  <si>
+    <t>Afghanistan</t>
+  </si>
+  <si>
+    <t>Iran</t>
+  </si>
+  <si>
+    <t>Asie de l'Ouest</t>
+  </si>
+  <si>
+    <t>Turquie</t>
+  </si>
+  <si>
+    <t>Liban</t>
+  </si>
+  <si>
+    <t>Syrie</t>
+  </si>
+  <si>
+    <t>Iraq</t>
+  </si>
+  <si>
+    <t>Israel</t>
+  </si>
+  <si>
+    <t>Jordanie</t>
+  </si>
+  <si>
+    <t>Péninsule arabique</t>
+  </si>
+  <si>
+    <t>Arabie Saoudite</t>
+  </si>
+  <si>
+    <t>Koweit</t>
+  </si>
+  <si>
+    <t>Yemen</t>
+  </si>
+  <si>
+    <t>Oman</t>
+  </si>
+  <si>
+    <t>Emirats arabes unis</t>
+  </si>
+  <si>
+    <t>Qatar</t>
+  </si>
+  <si>
+    <t>Bahrein</t>
+  </si>
+  <si>
+    <t>Amérique du Nord</t>
+  </si>
+  <si>
+    <t>Groenland</t>
+  </si>
+  <si>
+    <t>Canada</t>
+  </si>
+  <si>
+    <t>Etats-Unis</t>
+  </si>
+  <si>
+    <t>Mexique</t>
+  </si>
+  <si>
+    <t>Amérique Centrale</t>
+  </si>
+  <si>
+    <t>Guatemala</t>
+  </si>
+  <si>
+    <t>Belize</t>
+  </si>
+  <si>
+    <t>El Salvador</t>
+  </si>
+  <si>
+    <t>Honduras</t>
+  </si>
+  <si>
+    <t>Nicaragua</t>
+  </si>
+  <si>
+    <t>Costa Rica</t>
+  </si>
+  <si>
+    <t>Panama</t>
+  </si>
+  <si>
+    <t>Bermudes</t>
+  </si>
+  <si>
+    <t>Malte</t>
+  </si>
+  <si>
+    <t>Amérique du Sud</t>
+  </si>
+  <si>
+    <t>Venezuela</t>
+  </si>
+  <si>
+    <t>Colombie</t>
+  </si>
+  <si>
+    <t>Guyana</t>
+  </si>
+  <si>
+    <t>Suriname</t>
+  </si>
+  <si>
+    <t>Equateur</t>
+  </si>
+  <si>
+    <t>Perou</t>
+  </si>
+  <si>
+    <t>Bolivie</t>
+  </si>
+  <si>
+    <t>Chili</t>
+  </si>
+  <si>
+    <t>Brésil</t>
+  </si>
+  <si>
+    <t>Paraguay</t>
+  </si>
+  <si>
+    <t>Uruguay</t>
+  </si>
+  <si>
+    <t>Argentine</t>
+  </si>
+  <si>
+    <t>Caraïbes</t>
+  </si>
+  <si>
+    <t>Bahamas</t>
+  </si>
+  <si>
+    <t>Cuba</t>
+  </si>
+  <si>
+    <t>Jamaïque</t>
+  </si>
+  <si>
+    <t>Iles turques et Caïques</t>
+  </si>
+  <si>
+    <t>Haïti</t>
+  </si>
+  <si>
+    <t>République Dominicaine</t>
+  </si>
+  <si>
+    <t>Iles Caïman</t>
+  </si>
+  <si>
+    <t>Porto Rico</t>
+  </si>
+  <si>
+    <t>Iles Vierges Britaniques</t>
+  </si>
+  <si>
+    <t>Anguilla</t>
+  </si>
+  <si>
+    <t>Antigua et Barbuda</t>
+  </si>
+  <si>
+    <t>Montserrat</t>
+  </si>
+  <si>
+    <t>Dominique</t>
+  </si>
+  <si>
+    <t>Sainte-Lucie</t>
+  </si>
+  <si>
+    <t>Barbade</t>
+  </si>
+  <si>
+    <t>Saint-Vincent les Grenadines</t>
+  </si>
+  <si>
+    <t>Grenade</t>
+  </si>
+  <si>
+    <t>Trinité et Tobago</t>
+  </si>
+  <si>
+    <t>Aruba</t>
+  </si>
+  <si>
+    <t>Curaçao</t>
+  </si>
+  <si>
+    <t>Afrique du Nord</t>
+  </si>
+  <si>
+    <t>Maroc</t>
+  </si>
+  <si>
+    <t>Sahara occidental</t>
+  </si>
+  <si>
+    <t>Mauritanie</t>
+  </si>
+  <si>
+    <t>Algérie</t>
+  </si>
+  <si>
+    <t>Tunisie</t>
+  </si>
+  <si>
+    <t>Niger</t>
+  </si>
+  <si>
+    <t>Libye</t>
+  </si>
+  <si>
+    <t>Tchad</t>
+  </si>
+  <si>
+    <t>Egypte</t>
+  </si>
+  <si>
+    <t>Soudan</t>
+  </si>
+  <si>
+    <t>Erythrée</t>
+  </si>
+  <si>
+    <t>Djibouti</t>
+  </si>
+  <si>
+    <t>Afrique de l'Ouest</t>
+  </si>
+  <si>
+    <t>Cap Vert</t>
+  </si>
+  <si>
+    <t>Sénégal</t>
+  </si>
+  <si>
+    <t>Gambie</t>
+  </si>
+  <si>
+    <t>Guinée-Bissau</t>
+  </si>
+  <si>
+    <t>Guinée</t>
+  </si>
+  <si>
+    <t>Sierra-Leone</t>
+  </si>
+  <si>
+    <t>Libéria</t>
+  </si>
+  <si>
+    <t>Côte d'Ivoire</t>
+  </si>
+  <si>
+    <t>Mali</t>
+  </si>
+  <si>
+    <t>Burkina Faso</t>
+  </si>
+  <si>
+    <t>Ghana</t>
+  </si>
+  <si>
+    <t>Togo</t>
+  </si>
+  <si>
+    <t>Bénin</t>
+  </si>
+  <si>
+    <t>Nigeria</t>
+  </si>
+  <si>
+    <t>Cameroun$</t>
+  </si>
+  <si>
+    <t>Afrique de l'Est</t>
+  </si>
+  <si>
+    <t>Ethiopie</t>
+  </si>
+  <si>
+    <t>Somalie</t>
+  </si>
+  <si>
+    <t>Kenya</t>
+  </si>
+  <si>
+    <t>Soudan du Sud</t>
+  </si>
+  <si>
+    <t>Ouganda</t>
+  </si>
+  <si>
+    <t>Rwanda</t>
+  </si>
+  <si>
+    <t>Burundi</t>
+  </si>
+  <si>
+    <t>Tanzanie</t>
+  </si>
+  <si>
+    <t>Comores</t>
+  </si>
+  <si>
+    <t>Seychelles</t>
+  </si>
+  <si>
+    <t>Maurice</t>
+  </si>
+  <si>
+    <t>Madagascar</t>
+  </si>
+  <si>
+    <t>Afrique Centrale</t>
+  </si>
+  <si>
+    <t>Sao Tomé et Principe</t>
+  </si>
+  <si>
+    <t>Guinée Equatoriale</t>
+  </si>
+  <si>
+    <t>Gabon</t>
+  </si>
+  <si>
+    <t>Congo</t>
+  </si>
+  <si>
+    <t>République Centrafricaine</t>
+  </si>
+  <si>
+    <t>République Démocratique du Congo</t>
+  </si>
+  <si>
+    <t>Angola</t>
+  </si>
+  <si>
+    <t>Zambie</t>
+  </si>
+  <si>
+    <t>Malawi</t>
+  </si>
+  <si>
+    <t>Zimbabwe</t>
+  </si>
+  <si>
+    <t>Mozambique</t>
+  </si>
+  <si>
+    <t>Afrique du Sud</t>
+  </si>
+  <si>
+    <t>Namibie</t>
+  </si>
+  <si>
+    <t>Botswana</t>
+  </si>
+  <si>
+    <t>Eswatini</t>
+  </si>
+  <si>
+    <t>Lesotho</t>
+  </si>
+  <si>
+    <t>Bleu</t>
+  </si>
+  <si>
+    <t>Rouge</t>
+  </si>
+  <si>
+    <t>Vert</t>
+  </si>
+  <si>
+    <t>Orange</t>
+  </si>
+  <si>
+    <t>Rose/Violet</t>
+  </si>
+  <si>
+    <t>FF9FF3</t>
+  </si>
+  <si>
+    <t>E48BED</t>
+  </si>
+  <si>
+    <t>CA77E6</t>
+  </si>
+  <si>
+    <t>AF63E0</t>
+  </si>
+  <si>
+    <t>944FDA</t>
+  </si>
+  <si>
+    <t>7A3BD3</t>
+  </si>
+  <si>
+    <t>5F27CD</t>
+  </si>
+  <si>
+    <t>FF6B6B</t>
+  </si>
+  <si>
+    <t>F26363</t>
+  </si>
+  <si>
+    <t>E65A5A</t>
+  </si>
+  <si>
+    <t>D95252</t>
+  </si>
+  <si>
+    <t>CC4A4A</t>
+  </si>
+  <si>
+    <t>C04141</t>
+  </si>
+  <si>
+    <t>B33939</t>
+  </si>
+  <si>
+    <t>78E08F</t>
+  </si>
+  <si>
+    <t>5BC486</t>
+  </si>
+  <si>
+    <t>3EA87D</t>
+  </si>
+  <si>
+    <t>218C74</t>
+  </si>
+  <si>
+    <t>FFB142</t>
+  </si>
+  <si>
+    <t>F39D3E</t>
+  </si>
+  <si>
+    <t>E6893B</t>
+  </si>
+  <si>
+    <t>DA7537</t>
+  </si>
+  <si>
+    <t>CD6133</t>
+  </si>
+  <si>
+    <t>#0abde3</t>
   </si>
 </sst>
 </file>
@@ -126,13 +799,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -414,131 +1090,1670 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BE411C2-3FE0-4B9B-8442-AC40F1E76E9F}">
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:H50"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D51" sqref="D51"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="19" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="H1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="2"/>
+      <c r="B2" s="1"/>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="2"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="2"/>
+      <c r="B3" s="1"/>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="2"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="2"/>
+      <c r="B4" s="1"/>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="2"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="2"/>
+      <c r="B5" s="1"/>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="2"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="2"/>
+      <c r="B6" s="1"/>
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="2"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="2"/>
+      <c r="B7" s="1"/>
+      <c r="C7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="2"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="2"/>
+      <c r="B8" s="1"/>
+      <c r="C8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="2"/>
+    </row>
+    <row r="9" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2"/>
+      <c r="B9" s="1"/>
+      <c r="C9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="2"/>
+    </row>
+    <row r="10" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="2"/>
+      <c r="B10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="2"/>
+      <c r="B11" s="1"/>
+      <c r="C11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="2"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="2"/>
+      <c r="B12" s="1"/>
+      <c r="C12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="2"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="2"/>
+      <c r="B13" s="1"/>
+      <c r="C13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="2"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="2"/>
+      <c r="B14" s="1"/>
+      <c r="C14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" s="2"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="2"/>
+      <c r="B15" s="1"/>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" s="2"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="2"/>
+      <c r="B16" s="1"/>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" s="2"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="2"/>
+      <c r="B17" s="1"/>
+      <c r="C17" t="s">
+        <v>122</v>
+      </c>
+      <c r="D17" s="2"/>
+    </row>
+    <row r="18" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="2"/>
+      <c r="B18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="2"/>
+      <c r="B19" s="1"/>
+      <c r="C19" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" s="2"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="2"/>
+      <c r="B20" s="1"/>
+      <c r="C20" t="s">
+        <v>18</v>
+      </c>
+      <c r="D20" s="2"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="2"/>
+      <c r="B21" s="1"/>
+      <c r="C21" t="s">
+        <v>19</v>
+      </c>
+      <c r="D21" s="2"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="2"/>
+      <c r="B22" s="1"/>
+      <c r="C22" t="s">
+        <v>20</v>
+      </c>
+      <c r="D22" s="2"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="2"/>
+      <c r="B23" s="1"/>
+      <c r="C23" t="s">
+        <v>21</v>
+      </c>
+      <c r="D23" s="2"/>
+    </row>
+    <row r="24" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="2"/>
+      <c r="B24" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="2"/>
+      <c r="B25" s="1"/>
+      <c r="C25" t="s">
+        <v>28</v>
+      </c>
+      <c r="D25" s="2"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="2"/>
+      <c r="B26" s="1"/>
+      <c r="C26" t="s">
+        <v>29</v>
+      </c>
+      <c r="D26" s="2"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="2"/>
+      <c r="B27" s="1"/>
+      <c r="C27" t="s">
+        <v>30</v>
+      </c>
+      <c r="D27" s="2"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="2"/>
+      <c r="B28" s="1"/>
+      <c r="C28" t="s">
+        <v>31</v>
+      </c>
+      <c r="D28" s="2"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="2"/>
+      <c r="B29" s="1"/>
+      <c r="C29" t="s">
+        <v>32</v>
+      </c>
+      <c r="D29" s="2"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="2"/>
+      <c r="B30" s="1"/>
+      <c r="C30" t="s">
+        <v>33</v>
+      </c>
+      <c r="D30" s="2"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="2"/>
+      <c r="B31" s="1"/>
+      <c r="C31" t="s">
+        <v>34</v>
+      </c>
+      <c r="D31" s="2"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="2"/>
+      <c r="B32" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C32" t="s">
+        <v>36</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="2"/>
+      <c r="B33" s="1"/>
+      <c r="C33" t="s">
+        <v>37</v>
+      </c>
+      <c r="D33" s="2"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="2"/>
+      <c r="B34" s="1"/>
+      <c r="C34" t="s">
+        <v>38</v>
+      </c>
+      <c r="D34" s="2"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="2"/>
+      <c r="B35" s="1"/>
+      <c r="C35" t="s">
+        <v>39</v>
+      </c>
+      <c r="D35" s="2"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="2"/>
+      <c r="B36" s="1"/>
+      <c r="C36" t="s">
+        <v>40</v>
+      </c>
+      <c r="D36" s="2"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="2"/>
+      <c r="B37" s="1"/>
+      <c r="C37" t="s">
+        <v>41</v>
+      </c>
+      <c r="D37" s="2"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="2"/>
+      <c r="B38" s="1"/>
+      <c r="C38" t="s">
+        <v>42</v>
+      </c>
+      <c r="D38" s="2"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="2"/>
+      <c r="B39" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C39" t="s">
+        <v>44</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="2"/>
+      <c r="B40" s="1"/>
+      <c r="C40" t="s">
+        <v>45</v>
+      </c>
+      <c r="D40" s="2"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="2"/>
+      <c r="B41" s="1"/>
+      <c r="C41" t="s">
+        <v>46</v>
+      </c>
+      <c r="D41" s="2"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="2"/>
+      <c r="B42" s="1"/>
+      <c r="C42" t="s">
+        <v>47</v>
+      </c>
+      <c r="D42" s="2"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="2"/>
+      <c r="B43" s="1"/>
+      <c r="C43" t="s">
+        <v>48</v>
+      </c>
+      <c r="D43" s="2"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="2"/>
+      <c r="B44" s="1"/>
+      <c r="C44" t="s">
+        <v>49</v>
+      </c>
+      <c r="D44" s="2"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="2"/>
+      <c r="B45" s="1"/>
+      <c r="C45" t="s">
+        <v>50</v>
+      </c>
+      <c r="D45" s="2"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="2"/>
+      <c r="B46" s="1"/>
+      <c r="C46" t="s">
+        <v>51</v>
+      </c>
+      <c r="D46" s="2"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="2"/>
+      <c r="B47" s="1"/>
+      <c r="C47" t="s">
+        <v>52</v>
+      </c>
+      <c r="D47" s="2"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="2"/>
+      <c r="B48" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C48" t="s">
+        <v>54</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="2"/>
+      <c r="B49" s="2"/>
+      <c r="C49" t="s">
+        <v>55</v>
+      </c>
+      <c r="D49" s="2"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="2"/>
+      <c r="B50" s="2"/>
+      <c r="C50" t="s">
+        <v>56</v>
+      </c>
+      <c r="D50" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="15">
+    <mergeCell ref="D39:D47"/>
+    <mergeCell ref="D48:D50"/>
+    <mergeCell ref="D1:D9"/>
+    <mergeCell ref="D10:D17"/>
+    <mergeCell ref="D18:D23"/>
+    <mergeCell ref="D24:D31"/>
+    <mergeCell ref="D32:D38"/>
+    <mergeCell ref="B32:B38"/>
+    <mergeCell ref="B39:B47"/>
+    <mergeCell ref="B48:B50"/>
+    <mergeCell ref="A1:A50"/>
+    <mergeCell ref="B10:B17"/>
+    <mergeCell ref="B1:B9"/>
+    <mergeCell ref="B18:B23"/>
+    <mergeCell ref="B24:B31"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{238D9869-EC0E-4E53-81C1-BA1495E2E557}">
+  <dimension ref="B1:H45"/>
+  <sheetViews>
+    <sheetView topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="D46" sqref="D46"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="H1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B2" s="1"/>
+      <c r="C2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D2" s="2"/>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B3" s="1"/>
+      <c r="C3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D3" s="2"/>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B4" s="1"/>
+      <c r="C4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D4" s="2"/>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B5" s="1"/>
+      <c r="C5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D5" s="2"/>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B6" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B7" s="1"/>
+      <c r="C7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D7" s="2"/>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B8" s="1"/>
+      <c r="C8" t="s">
+        <v>66</v>
+      </c>
+      <c r="D8" s="2"/>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B9" s="1"/>
+      <c r="C9" t="s">
+        <v>67</v>
+      </c>
+      <c r="D9" s="2"/>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B10" s="1"/>
+      <c r="C10" t="s">
+        <v>68</v>
+      </c>
+      <c r="D10" s="2"/>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B11" s="1"/>
+      <c r="C11" t="s">
+        <v>69</v>
+      </c>
+      <c r="D11" s="2"/>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B12" s="1"/>
+      <c r="C12" t="s">
+        <v>70</v>
+      </c>
+      <c r="D12" s="2"/>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B13" s="1"/>
+      <c r="C13" t="s">
+        <v>71</v>
+      </c>
+      <c r="D13" s="2"/>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B14" s="1"/>
+      <c r="C14" t="s">
+        <v>72</v>
+      </c>
+      <c r="D14" s="2"/>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B15" s="1"/>
+      <c r="C15" t="s">
+        <v>73</v>
+      </c>
+      <c r="D15" s="2"/>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B16" s="1"/>
+      <c r="C16" t="s">
+        <v>74</v>
+      </c>
+      <c r="D16" s="2"/>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B17" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C17" t="s">
+        <v>76</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B18" s="1"/>
+      <c r="C18" t="s">
+        <v>77</v>
+      </c>
+      <c r="D18" s="2"/>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B19" s="1"/>
+      <c r="C19" t="s">
+        <v>78</v>
+      </c>
+      <c r="D19" s="2"/>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B20" s="1"/>
+      <c r="C20" t="s">
+        <v>79</v>
+      </c>
+      <c r="D20" s="2"/>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B21" s="1"/>
+      <c r="C21" t="s">
+        <v>80</v>
+      </c>
+      <c r="D21" s="2"/>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B22" s="1"/>
+      <c r="C22" t="s">
+        <v>81</v>
+      </c>
+      <c r="D22" s="2"/>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B23" s="1"/>
+      <c r="C23" t="s">
+        <v>82</v>
+      </c>
+      <c r="D23" s="2"/>
+    </row>
+    <row r="24" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C24" t="s">
+        <v>42</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B25" s="1"/>
+      <c r="C25" t="s">
+        <v>84</v>
+      </c>
+      <c r="D25" s="2"/>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B26" s="1"/>
+      <c r="C26" t="s">
+        <v>85</v>
+      </c>
+      <c r="D26" s="2"/>
+    </row>
+    <row r="27" spans="2:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C27" t="s">
+        <v>87</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B28" s="1"/>
+      <c r="C28" t="s">
+        <v>88</v>
+      </c>
+      <c r="D28" s="2"/>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B29" s="1"/>
+      <c r="C29" t="s">
+        <v>89</v>
+      </c>
+      <c r="D29" s="2"/>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B30" s="1"/>
+      <c r="C30" t="s">
+        <v>90</v>
+      </c>
+      <c r="D30" s="2"/>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B31" s="1"/>
+      <c r="C31" t="s">
+        <v>91</v>
+      </c>
+      <c r="D31" s="2"/>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B32" s="1"/>
+      <c r="C32" t="s">
+        <v>92</v>
+      </c>
+      <c r="D32" s="2"/>
+    </row>
+    <row r="33" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C33" t="s">
+        <v>94</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B34" s="1"/>
+      <c r="C34" t="s">
+        <v>95</v>
+      </c>
+      <c r="D34" s="2"/>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B35" s="1"/>
+      <c r="C35" t="s">
+        <v>96</v>
+      </c>
+      <c r="D35" s="2"/>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B36" s="1"/>
+      <c r="C36" t="s">
+        <v>97</v>
+      </c>
+      <c r="D36" s="2"/>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B37" s="1"/>
+      <c r="C37" t="s">
+        <v>98</v>
+      </c>
+      <c r="D37" s="2"/>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B38" s="1"/>
+      <c r="C38" t="s">
+        <v>99</v>
+      </c>
+      <c r="D38" s="2"/>
+    </row>
+    <row r="39" spans="2:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C39" t="s">
+        <v>101</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B40" s="1"/>
+      <c r="C40" t="s">
+        <v>102</v>
+      </c>
+      <c r="D40" s="2"/>
+    </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B41" s="1"/>
+      <c r="C41" t="s">
+        <v>103</v>
+      </c>
+      <c r="D41" s="2"/>
+    </row>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B42" s="1"/>
+      <c r="C42" t="s">
+        <v>104</v>
+      </c>
+      <c r="D42" s="2"/>
+    </row>
+    <row r="43" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B43" s="1"/>
+      <c r="C43" t="s">
+        <v>105</v>
+      </c>
+      <c r="D43" s="2"/>
+    </row>
+    <row r="44" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B44" s="1"/>
+      <c r="C44" t="s">
+        <v>106</v>
+      </c>
+      <c r="D44" s="2"/>
+    </row>
+    <row r="45" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B45" s="1"/>
+      <c r="C45" t="s">
+        <v>107</v>
+      </c>
+      <c r="D45" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="14">
+    <mergeCell ref="D33:D38"/>
+    <mergeCell ref="D39:D45"/>
+    <mergeCell ref="D1:D5"/>
+    <mergeCell ref="D6:D16"/>
+    <mergeCell ref="D17:D23"/>
+    <mergeCell ref="D24:D26"/>
+    <mergeCell ref="D27:D32"/>
+    <mergeCell ref="B33:B38"/>
+    <mergeCell ref="B39:B45"/>
+    <mergeCell ref="B1:B5"/>
+    <mergeCell ref="B6:B16"/>
+    <mergeCell ref="B17:B23"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="B27:B32"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{066F3D06-EDD1-4A53-BF93-E9AA872A3AE3}">
+  <dimension ref="B1:I44"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="27" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="I1" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B2" s="1"/>
+      <c r="C2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D2" s="2"/>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B3" s="1"/>
+      <c r="C3" t="s">
+        <v>111</v>
+      </c>
+      <c r="D3" s="2"/>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B4" s="1"/>
+      <c r="C4" t="s">
+        <v>112</v>
+      </c>
+      <c r="D4" s="2"/>
+    </row>
+    <row r="5" spans="2:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="1"/>
+      <c r="C5" t="s">
+        <v>121</v>
+      </c>
+      <c r="D5" s="2"/>
+    </row>
+    <row r="6" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C6" t="s">
+        <v>114</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B7" s="1"/>
+      <c r="C7" t="s">
+        <v>115</v>
+      </c>
+      <c r="D7" s="2"/>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B8" s="1"/>
+      <c r="C8" t="s">
+        <v>116</v>
+      </c>
+      <c r="D8" s="2"/>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B9" s="1"/>
+      <c r="C9" t="s">
+        <v>117</v>
+      </c>
+      <c r="D9" s="2"/>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B10" s="1"/>
+      <c r="C10" t="s">
+        <v>118</v>
+      </c>
+      <c r="D10" s="2"/>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B11" s="1"/>
+      <c r="C11" t="s">
+        <v>119</v>
+      </c>
+      <c r="D11" s="2"/>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B12" s="1"/>
+      <c r="C12" t="s">
+        <v>120</v>
+      </c>
+      <c r="D12" s="2"/>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B13" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C13" t="s">
+        <v>124</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B14" s="1"/>
+      <c r="C14" t="s">
+        <v>125</v>
+      </c>
+      <c r="D14" s="2"/>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B15" s="1"/>
+      <c r="C15" t="s">
+        <v>126</v>
+      </c>
+      <c r="D15" s="2"/>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B16" s="1"/>
+      <c r="C16" t="s">
+        <v>127</v>
+      </c>
+      <c r="D16" s="2"/>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B17" s="1"/>
+      <c r="C17" t="s">
+        <v>128</v>
+      </c>
+      <c r="D17" s="2"/>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B18" s="1"/>
+      <c r="C18" t="s">
+        <v>129</v>
+      </c>
+      <c r="D18" s="2"/>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B19" s="1"/>
+      <c r="C19" t="s">
+        <v>130</v>
+      </c>
+      <c r="D19" s="2"/>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B20" s="1"/>
+      <c r="C20" t="s">
+        <v>131</v>
+      </c>
+      <c r="D20" s="2"/>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B21" s="1"/>
+      <c r="C21" t="s">
+        <v>132</v>
+      </c>
+      <c r="D21" s="2"/>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B22" s="1"/>
+      <c r="C22" t="s">
+        <v>133</v>
+      </c>
+      <c r="D22" s="2"/>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B23" s="1"/>
+      <c r="C23" t="s">
+        <v>134</v>
+      </c>
+      <c r="D23" s="2"/>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B24" s="1"/>
+      <c r="C24" t="s">
+        <v>135</v>
+      </c>
+      <c r="D24" s="2"/>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B25" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C25" t="s">
+        <v>137</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B26" s="1"/>
+      <c r="C26" t="s">
+        <v>138</v>
+      </c>
+      <c r="D26" s="2"/>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B27" s="1"/>
+      <c r="C27" t="s">
+        <v>139</v>
+      </c>
+      <c r="D27" s="2"/>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B28" s="1"/>
+      <c r="C28" t="s">
+        <v>140</v>
+      </c>
+      <c r="D28" s="2"/>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B29" s="1"/>
+      <c r="C29" t="s">
+        <v>141</v>
+      </c>
+      <c r="D29" s="2"/>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B30" s="1"/>
+      <c r="C30" t="s">
+        <v>142</v>
+      </c>
+      <c r="D30" s="2"/>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B31" s="1"/>
+      <c r="C31" t="s">
+        <v>143</v>
+      </c>
+      <c r="D31" s="2"/>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B32" s="1"/>
+      <c r="C32" t="s">
+        <v>144</v>
+      </c>
+      <c r="D32" s="2"/>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B33" s="1"/>
+      <c r="C33" t="s">
+        <v>145</v>
+      </c>
+      <c r="D33" s="2"/>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B34" s="1"/>
+      <c r="C34" t="s">
+        <v>146</v>
+      </c>
+      <c r="D34" s="2"/>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B35" s="1"/>
+      <c r="C35" t="s">
+        <v>147</v>
+      </c>
+      <c r="D35" s="2"/>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B36" s="1"/>
+      <c r="C36" t="s">
+        <v>148</v>
+      </c>
+      <c r="D36" s="2"/>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B37" s="1"/>
+      <c r="C37" t="s">
+        <v>149</v>
+      </c>
+      <c r="D37" s="2"/>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B38" s="1"/>
+      <c r="C38" t="s">
+        <v>150</v>
+      </c>
+      <c r="D38" s="2"/>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B39" s="1"/>
+      <c r="C39" t="s">
+        <v>151</v>
+      </c>
+      <c r="D39" s="2"/>
+    </row>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B40" s="1"/>
+      <c r="C40" t="s">
+        <v>152</v>
+      </c>
+      <c r="D40" s="2"/>
+    </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B41" s="1"/>
+      <c r="C41" t="s">
+        <v>153</v>
+      </c>
+      <c r="D41" s="2"/>
+    </row>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B42" s="1"/>
+      <c r="C42" t="s">
+        <v>154</v>
+      </c>
+      <c r="D42" s="2"/>
+    </row>
+    <row r="43" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B43" s="1"/>
+      <c r="C43" t="s">
+        <v>155</v>
+      </c>
+      <c r="D43" s="2"/>
+    </row>
+    <row r="44" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B44" s="1"/>
+      <c r="C44" t="s">
+        <v>156</v>
+      </c>
+      <c r="D44" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="B6:B12"/>
+    <mergeCell ref="B1:B5"/>
+    <mergeCell ref="B13:B24"/>
+    <mergeCell ref="B25:B44"/>
+    <mergeCell ref="D1:D5"/>
+    <mergeCell ref="D6:D12"/>
+    <mergeCell ref="D13:D24"/>
+    <mergeCell ref="D25:D44"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4658189D-5046-4B82-97BB-16775F9A7B5B}">
+  <dimension ref="B1:F55"/>
+  <sheetViews>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="C58" sqref="C58"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="33.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="F1" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2" s="1"/>
+      <c r="C2" t="s">
+        <v>159</v>
+      </c>
+      <c r="D2" s="2"/>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B3" s="1"/>
+      <c r="C3" t="s">
+        <v>160</v>
+      </c>
+      <c r="D3" s="2"/>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B4" s="1"/>
+      <c r="C4" t="s">
+        <v>161</v>
+      </c>
+      <c r="D4" s="2"/>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B5" s="1"/>
+      <c r="C5" t="s">
+        <v>162</v>
+      </c>
+      <c r="D5" s="2"/>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B6" s="1"/>
+      <c r="C6" t="s">
+        <v>163</v>
+      </c>
+      <c r="D6" s="2"/>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B7" s="1"/>
+      <c r="C7" t="s">
+        <v>164</v>
+      </c>
+      <c r="D7" s="2"/>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B8" s="1"/>
+      <c r="C8" t="s">
+        <v>165</v>
+      </c>
+      <c r="D8" s="2"/>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B9" s="1"/>
+      <c r="C9" t="s">
+        <v>166</v>
+      </c>
+      <c r="D9" s="2"/>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B10" s="1"/>
+      <c r="C10" t="s">
+        <v>167</v>
+      </c>
+      <c r="D10" s="2"/>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B11" s="1"/>
+      <c r="C11" t="s">
+        <v>168</v>
+      </c>
+      <c r="D11" s="2"/>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B12" s="1"/>
+      <c r="C12" t="s">
+        <v>169</v>
+      </c>
+      <c r="D12" s="2"/>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B13" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C13" t="s">
+        <v>171</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B14" s="1"/>
+      <c r="C14" t="s">
+        <v>172</v>
+      </c>
+      <c r="D14" s="2"/>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B15" s="1"/>
+      <c r="C15" t="s">
+        <v>173</v>
+      </c>
+      <c r="D15" s="2"/>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B16" s="1"/>
+      <c r="C16" t="s">
+        <v>174</v>
+      </c>
+      <c r="D16" s="2"/>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B17" s="1"/>
+      <c r="C17" t="s">
+        <v>175</v>
+      </c>
+      <c r="D17" s="2"/>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B18" s="1"/>
+      <c r="C18" t="s">
+        <v>176</v>
+      </c>
+      <c r="D18" s="2"/>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B19" s="1"/>
+      <c r="C19" t="s">
+        <v>177</v>
+      </c>
+      <c r="D19" s="2"/>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B20" s="1"/>
+      <c r="C20" t="s">
+        <v>178</v>
+      </c>
+      <c r="D20" s="2"/>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B21" s="1"/>
+      <c r="C21" t="s">
+        <v>179</v>
+      </c>
+      <c r="D21" s="2"/>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B22" s="1"/>
+      <c r="C22" t="s">
+        <v>180</v>
+      </c>
+      <c r="D22" s="2"/>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B23" s="1"/>
+      <c r="C23" t="s">
+        <v>181</v>
+      </c>
+      <c r="D23" s="2"/>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B24" s="1"/>
+      <c r="C24" t="s">
+        <v>182</v>
+      </c>
+      <c r="D24" s="2"/>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B25" s="1"/>
+      <c r="C25" t="s">
+        <v>183</v>
+      </c>
+      <c r="D25" s="2"/>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B26" s="1"/>
+      <c r="C26" t="s">
+        <v>184</v>
+      </c>
+      <c r="D26" s="2"/>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B27" s="1"/>
+      <c r="C27" t="s">
+        <v>185</v>
+      </c>
+      <c r="D27" s="2"/>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B28" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C28" t="s">
+        <v>187</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B29" s="1"/>
+      <c r="C29" t="s">
+        <v>188</v>
+      </c>
+      <c r="D29" s="2"/>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B30" s="1"/>
+      <c r="C30" t="s">
+        <v>189</v>
+      </c>
+      <c r="D30" s="2"/>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B31" s="1"/>
+      <c r="C31" t="s">
+        <v>190</v>
+      </c>
+      <c r="D31" s="2"/>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B32" s="1"/>
+      <c r="C32" t="s">
+        <v>191</v>
+      </c>
+      <c r="D32" s="2"/>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B33" s="1"/>
+      <c r="C33" t="s">
+        <v>192</v>
+      </c>
+      <c r="D33" s="2"/>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B34" s="1"/>
+      <c r="C34" t="s">
+        <v>193</v>
+      </c>
+      <c r="D34" s="2"/>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B35" s="1"/>
+      <c r="C35" t="s">
+        <v>194</v>
+      </c>
+      <c r="D35" s="2"/>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B36" s="1"/>
+      <c r="C36" t="s">
+        <v>195</v>
+      </c>
+      <c r="D36" s="2"/>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B37" s="1"/>
+      <c r="C37" t="s">
+        <v>196</v>
+      </c>
+      <c r="D37" s="2"/>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B38" s="1"/>
+      <c r="C38" t="s">
+        <v>197</v>
+      </c>
+      <c r="D38" s="2"/>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B39" s="1"/>
+      <c r="C39" t="s">
+        <v>198</v>
+      </c>
+      <c r="D39" s="2"/>
+    </row>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B40" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C40" t="s">
+        <v>200</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B41" s="1"/>
+      <c r="C41" t="s">
+        <v>201</v>
+      </c>
+      <c r="D41" s="2"/>
+    </row>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B42" s="1"/>
+      <c r="C42" t="s">
+        <v>202</v>
+      </c>
+      <c r="D42" s="2"/>
+    </row>
+    <row r="43" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B43" s="1"/>
+      <c r="C43" t="s">
+        <v>203</v>
+      </c>
+      <c r="D43" s="2"/>
+    </row>
+    <row r="44" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B44" s="1"/>
+      <c r="C44" t="s">
+        <v>204</v>
+      </c>
+      <c r="D44" s="2"/>
+    </row>
+    <row r="45" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B45" s="1"/>
+      <c r="C45" t="s">
+        <v>205</v>
+      </c>
+      <c r="D45" s="2"/>
+    </row>
+    <row r="46" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B46" s="1"/>
+      <c r="C46" t="s">
+        <v>206</v>
+      </c>
+      <c r="D46" s="2"/>
+    </row>
+    <row r="47" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B47" s="1"/>
+      <c r="C47" t="s">
+        <v>207</v>
+      </c>
+      <c r="D47" s="2"/>
+    </row>
+    <row r="48" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B48" s="1"/>
+      <c r="C48" t="s">
+        <v>208</v>
+      </c>
+      <c r="D48" s="2"/>
+    </row>
+    <row r="49" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B49" s="1"/>
+      <c r="C49" t="s">
+        <v>209</v>
+      </c>
+      <c r="D49" s="2"/>
+    </row>
+    <row r="50" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B50" s="1"/>
+      <c r="C50" t="s">
+        <v>210</v>
+      </c>
+      <c r="D50" s="2"/>
+    </row>
+    <row r="51" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B51" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C51" t="s">
+        <v>211</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="52" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B52" s="1"/>
+      <c r="C52" t="s">
+        <v>212</v>
+      </c>
+      <c r="D52" s="2"/>
+    </row>
+    <row r="53" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B53" s="1"/>
+      <c r="C53" t="s">
+        <v>213</v>
+      </c>
+      <c r="D53" s="2"/>
+    </row>
+    <row r="54" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B54" s="1"/>
+      <c r="C54" t="s">
+        <v>214</v>
+      </c>
+      <c r="D54" s="2"/>
+    </row>
+    <row r="55" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B55" s="1"/>
+      <c r="C55" t="s">
+        <v>215</v>
+      </c>
+      <c r="D55" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="D1:D12"/>
+    <mergeCell ref="D13:D27"/>
+    <mergeCell ref="D28:D39"/>
+    <mergeCell ref="D40:D50"/>
+    <mergeCell ref="D51:D55"/>
+    <mergeCell ref="B1:B12"/>
+    <mergeCell ref="B13:B27"/>
+    <mergeCell ref="B28:B39"/>
+    <mergeCell ref="B40:B50"/>
+    <mergeCell ref="B51:B55"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7419EC8-10A5-4423-ACED-73E8CE21648A}">
+  <dimension ref="G1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B2" s="1"/>
-      <c r="C2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B3" s="1"/>
-      <c r="C3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B4" s="1"/>
-      <c r="C4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B5" s="1"/>
-      <c r="C5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B6" s="1"/>
-      <c r="C6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B7" s="1"/>
-      <c r="C7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B8" s="1"/>
-      <c r="C8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="B10" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B11" s="2"/>
-      <c r="C11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B12" s="2"/>
-      <c r="C12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B13" s="2"/>
-      <c r="C13" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C15" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C16" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C17" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C18" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C19" t="s">
-        <v>21</v>
+    <row r="1" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="2" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G2" t="s">
+        <v>244</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B1:B8"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/map_Monde/Pour mémoire.xlsx
+++ b/map_Monde/Pour mémoire.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\mymaps\Github\mymaps\map_Monde\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HM0B47FL\Documents\GitHub\mymaps\map_Monde\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEA4F14B-8434-41E6-B8A2-74727F625DAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6AA6754-859C-48FB-A702-59EC72E3F080}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="14250" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Europe" sheetId="2" r:id="rId1"/>
@@ -802,13 +802,13 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1099,14 +1099,14 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="19" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" style="3"/>
+    <col min="4" max="4" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
@@ -1121,7 +1121,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
-      <c r="B2" s="1"/>
+      <c r="B2" s="3"/>
       <c r="C2" t="s">
         <v>3</v>
       </c>
@@ -1129,7 +1129,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
-      <c r="B3" s="1"/>
+      <c r="B3" s="3"/>
       <c r="C3" t="s">
         <v>4</v>
       </c>
@@ -1137,7 +1137,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
-      <c r="B4" s="1"/>
+      <c r="B4" s="3"/>
       <c r="C4" t="s">
         <v>5</v>
       </c>
@@ -1145,7 +1145,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
-      <c r="B5" s="1"/>
+      <c r="B5" s="3"/>
       <c r="C5" t="s">
         <v>6</v>
       </c>
@@ -1153,7 +1153,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
-      <c r="B6" s="1"/>
+      <c r="B6" s="3"/>
       <c r="C6" t="s">
         <v>7</v>
       </c>
@@ -1161,7 +1161,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
-      <c r="B7" s="1"/>
+      <c r="B7" s="3"/>
       <c r="C7" t="s">
         <v>8</v>
       </c>
@@ -1169,7 +1169,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
-      <c r="B8" s="1"/>
+      <c r="B8" s="3"/>
       <c r="C8" t="s">
         <v>9</v>
       </c>
@@ -1177,7 +1177,7 @@
     </row>
     <row r="9" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
-      <c r="B9" s="1"/>
+      <c r="B9" s="3"/>
       <c r="C9" t="s">
         <v>22</v>
       </c>
@@ -1185,7 +1185,7 @@
     </row>
     <row r="10" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C10" t="s">
@@ -1197,7 +1197,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
-      <c r="B11" s="1"/>
+      <c r="B11" s="3"/>
       <c r="C11" t="s">
         <v>12</v>
       </c>
@@ -1205,7 +1205,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
-      <c r="B12" s="1"/>
+      <c r="B12" s="3"/>
       <c r="C12" t="s">
         <v>13</v>
       </c>
@@ -1213,7 +1213,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
-      <c r="B13" s="1"/>
+      <c r="B13" s="3"/>
       <c r="C13" t="s">
         <v>14</v>
       </c>
@@ -1221,7 +1221,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
-      <c r="B14" s="1"/>
+      <c r="B14" s="3"/>
       <c r="C14" t="s">
         <v>23</v>
       </c>
@@ -1229,7 +1229,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
-      <c r="B15" s="1"/>
+      <c r="B15" s="3"/>
       <c r="C15" t="s">
         <v>24</v>
       </c>
@@ -1237,7 +1237,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
-      <c r="B16" s="1"/>
+      <c r="B16" s="3"/>
       <c r="C16" t="s">
         <v>25</v>
       </c>
@@ -1245,7 +1245,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
-      <c r="B17" s="1"/>
+      <c r="B17" s="3"/>
       <c r="C17" t="s">
         <v>122</v>
       </c>
@@ -1253,7 +1253,7 @@
     </row>
     <row r="18" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="3" t="s">
         <v>15</v>
       </c>
       <c r="C18" t="s">
@@ -1265,7 +1265,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
-      <c r="B19" s="1"/>
+      <c r="B19" s="3"/>
       <c r="C19" t="s">
         <v>17</v>
       </c>
@@ -1273,7 +1273,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
-      <c r="B20" s="1"/>
+      <c r="B20" s="3"/>
       <c r="C20" t="s">
         <v>18</v>
       </c>
@@ -1281,7 +1281,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
-      <c r="B21" s="1"/>
+      <c r="B21" s="3"/>
       <c r="C21" t="s">
         <v>19</v>
       </c>
@@ -1289,7 +1289,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
-      <c r="B22" s="1"/>
+      <c r="B22" s="3"/>
       <c r="C22" t="s">
         <v>20</v>
       </c>
@@ -1297,7 +1297,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
-      <c r="B23" s="1"/>
+      <c r="B23" s="3"/>
       <c r="C23" t="s">
         <v>21</v>
       </c>
@@ -1305,7 +1305,7 @@
     </row>
     <row r="24" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
-      <c r="B24" s="1" t="s">
+      <c r="B24" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C24" t="s">
@@ -1317,7 +1317,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
-      <c r="B25" s="1"/>
+      <c r="B25" s="3"/>
       <c r="C25" t="s">
         <v>28</v>
       </c>
@@ -1325,7 +1325,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
-      <c r="B26" s="1"/>
+      <c r="B26" s="3"/>
       <c r="C26" t="s">
         <v>29</v>
       </c>
@@ -1333,7 +1333,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
-      <c r="B27" s="1"/>
+      <c r="B27" s="3"/>
       <c r="C27" t="s">
         <v>30</v>
       </c>
@@ -1341,7 +1341,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
-      <c r="B28" s="1"/>
+      <c r="B28" s="3"/>
       <c r="C28" t="s">
         <v>31</v>
       </c>
@@ -1349,7 +1349,7 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
-      <c r="B29" s="1"/>
+      <c r="B29" s="3"/>
       <c r="C29" t="s">
         <v>32</v>
       </c>
@@ -1357,7 +1357,7 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
-      <c r="B30" s="1"/>
+      <c r="B30" s="3"/>
       <c r="C30" t="s">
         <v>33</v>
       </c>
@@ -1365,7 +1365,7 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
-      <c r="B31" s="1"/>
+      <c r="B31" s="3"/>
       <c r="C31" t="s">
         <v>34</v>
       </c>
@@ -1373,7 +1373,7 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
-      <c r="B32" s="1" t="s">
+      <c r="B32" s="3" t="s">
         <v>35</v>
       </c>
       <c r="C32" t="s">
@@ -1385,7 +1385,7 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
-      <c r="B33" s="1"/>
+      <c r="B33" s="3"/>
       <c r="C33" t="s">
         <v>37</v>
       </c>
@@ -1393,7 +1393,7 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="2"/>
-      <c r="B34" s="1"/>
+      <c r="B34" s="3"/>
       <c r="C34" t="s">
         <v>38</v>
       </c>
@@ -1401,7 +1401,7 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="2"/>
-      <c r="B35" s="1"/>
+      <c r="B35" s="3"/>
       <c r="C35" t="s">
         <v>39</v>
       </c>
@@ -1409,7 +1409,7 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="2"/>
-      <c r="B36" s="1"/>
+      <c r="B36" s="3"/>
       <c r="C36" t="s">
         <v>40</v>
       </c>
@@ -1417,7 +1417,7 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="2"/>
-      <c r="B37" s="1"/>
+      <c r="B37" s="3"/>
       <c r="C37" t="s">
         <v>41</v>
       </c>
@@ -1425,7 +1425,7 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="2"/>
-      <c r="B38" s="1"/>
+      <c r="B38" s="3"/>
       <c r="C38" t="s">
         <v>42</v>
       </c>
@@ -1433,7 +1433,7 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="2"/>
-      <c r="B39" s="1" t="s">
+      <c r="B39" s="3" t="s">
         <v>43</v>
       </c>
       <c r="C39" t="s">
@@ -1445,7 +1445,7 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="2"/>
-      <c r="B40" s="1"/>
+      <c r="B40" s="3"/>
       <c r="C40" t="s">
         <v>45</v>
       </c>
@@ -1453,7 +1453,7 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="2"/>
-      <c r="B41" s="1"/>
+      <c r="B41" s="3"/>
       <c r="C41" t="s">
         <v>46</v>
       </c>
@@ -1461,7 +1461,7 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="2"/>
-      <c r="B42" s="1"/>
+      <c r="B42" s="3"/>
       <c r="C42" t="s">
         <v>47</v>
       </c>
@@ -1469,7 +1469,7 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="2"/>
-      <c r="B43" s="1"/>
+      <c r="B43" s="3"/>
       <c r="C43" t="s">
         <v>48</v>
       </c>
@@ -1477,7 +1477,7 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="2"/>
-      <c r="B44" s="1"/>
+      <c r="B44" s="3"/>
       <c r="C44" t="s">
         <v>49</v>
       </c>
@@ -1485,7 +1485,7 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="2"/>
-      <c r="B45" s="1"/>
+      <c r="B45" s="3"/>
       <c r="C45" t="s">
         <v>50</v>
       </c>
@@ -1493,7 +1493,7 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="2"/>
-      <c r="B46" s="1"/>
+      <c r="B46" s="3"/>
       <c r="C46" t="s">
         <v>51</v>
       </c>
@@ -1501,7 +1501,7 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="2"/>
-      <c r="B47" s="1"/>
+      <c r="B47" s="3"/>
       <c r="C47" t="s">
         <v>52</v>
       </c>
@@ -1537,13 +1537,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="D39:D47"/>
-    <mergeCell ref="D48:D50"/>
-    <mergeCell ref="D1:D9"/>
-    <mergeCell ref="D10:D17"/>
-    <mergeCell ref="D18:D23"/>
-    <mergeCell ref="D24:D31"/>
-    <mergeCell ref="D32:D38"/>
     <mergeCell ref="B32:B38"/>
     <mergeCell ref="B39:B47"/>
     <mergeCell ref="B48:B50"/>
@@ -1552,6 +1545,13 @@
     <mergeCell ref="B1:B9"/>
     <mergeCell ref="B18:B23"/>
     <mergeCell ref="B24:B31"/>
+    <mergeCell ref="D39:D47"/>
+    <mergeCell ref="D48:D50"/>
+    <mergeCell ref="D1:D9"/>
+    <mergeCell ref="D10:D17"/>
+    <mergeCell ref="D18:D23"/>
+    <mergeCell ref="D24:D31"/>
+    <mergeCell ref="D32:D38"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1561,18 +1561,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{238D9869-EC0E-4E53-81C1-BA1495E2E557}">
   <dimension ref="B1:H45"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" style="3"/>
+    <col min="4" max="4" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>57</v>
       </c>
       <c r="C1" t="s">
@@ -1586,35 +1586,35 @@
       </c>
     </row>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B2" s="1"/>
+      <c r="B2" s="3"/>
       <c r="C2" t="s">
         <v>59</v>
       </c>
       <c r="D2" s="2"/>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B3" s="1"/>
+      <c r="B3" s="3"/>
       <c r="C3" t="s">
         <v>60</v>
       </c>
       <c r="D3" s="2"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="1"/>
+      <c r="B4" s="3"/>
       <c r="C4" t="s">
         <v>61</v>
       </c>
       <c r="D4" s="2"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B5" s="1"/>
+      <c r="B5" s="3"/>
       <c r="C5" t="s">
         <v>62</v>
       </c>
       <c r="D5" s="2"/>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="3" t="s">
         <v>63</v>
       </c>
       <c r="C6" t="s">
@@ -1625,77 +1625,77 @@
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B7" s="1"/>
+      <c r="B7" s="3"/>
       <c r="C7" t="s">
         <v>65</v>
       </c>
       <c r="D7" s="2"/>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B8" s="1"/>
+      <c r="B8" s="3"/>
       <c r="C8" t="s">
         <v>66</v>
       </c>
       <c r="D8" s="2"/>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B9" s="1"/>
+      <c r="B9" s="3"/>
       <c r="C9" t="s">
         <v>67</v>
       </c>
       <c r="D9" s="2"/>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B10" s="1"/>
+      <c r="B10" s="3"/>
       <c r="C10" t="s">
         <v>68</v>
       </c>
       <c r="D10" s="2"/>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B11" s="1"/>
+      <c r="B11" s="3"/>
       <c r="C11" t="s">
         <v>69</v>
       </c>
       <c r="D11" s="2"/>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B12" s="1"/>
+      <c r="B12" s="3"/>
       <c r="C12" t="s">
         <v>70</v>
       </c>
       <c r="D12" s="2"/>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B13" s="1"/>
+      <c r="B13" s="3"/>
       <c r="C13" t="s">
         <v>71</v>
       </c>
       <c r="D13" s="2"/>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B14" s="1"/>
+      <c r="B14" s="3"/>
       <c r="C14" t="s">
         <v>72</v>
       </c>
       <c r="D14" s="2"/>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B15" s="1"/>
+      <c r="B15" s="3"/>
       <c r="C15" t="s">
         <v>73</v>
       </c>
       <c r="D15" s="2"/>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B16" s="1"/>
+      <c r="B16" s="3"/>
       <c r="C16" t="s">
         <v>74</v>
       </c>
       <c r="D16" s="2"/>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="3" t="s">
         <v>75</v>
       </c>
       <c r="C17" t="s">
@@ -1706,49 +1706,49 @@
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B18" s="1"/>
+      <c r="B18" s="3"/>
       <c r="C18" t="s">
         <v>77</v>
       </c>
       <c r="D18" s="2"/>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B19" s="1"/>
+      <c r="B19" s="3"/>
       <c r="C19" t="s">
         <v>78</v>
       </c>
       <c r="D19" s="2"/>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B20" s="1"/>
+      <c r="B20" s="3"/>
       <c r="C20" t="s">
         <v>79</v>
       </c>
       <c r="D20" s="2"/>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B21" s="1"/>
+      <c r="B21" s="3"/>
       <c r="C21" t="s">
         <v>80</v>
       </c>
       <c r="D21" s="2"/>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B22" s="1"/>
+      <c r="B22" s="3"/>
       <c r="C22" t="s">
         <v>81</v>
       </c>
       <c r="D22" s="2"/>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B23" s="1"/>
+      <c r="B23" s="3"/>
       <c r="C23" t="s">
         <v>82</v>
       </c>
       <c r="D23" s="2"/>
     </row>
     <row r="24" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="1" t="s">
+      <c r="B24" s="3" t="s">
         <v>83</v>
       </c>
       <c r="C24" t="s">
@@ -1759,21 +1759,21 @@
       </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B25" s="1"/>
+      <c r="B25" s="3"/>
       <c r="C25" t="s">
         <v>84</v>
       </c>
       <c r="D25" s="2"/>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B26" s="1"/>
+      <c r="B26" s="3"/>
       <c r="C26" t="s">
         <v>85</v>
       </c>
       <c r="D26" s="2"/>
     </row>
     <row r="27" spans="2:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="1" t="s">
+      <c r="B27" s="3" t="s">
         <v>86</v>
       </c>
       <c r="C27" t="s">
@@ -1784,42 +1784,42 @@
       </c>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B28" s="1"/>
+      <c r="B28" s="3"/>
       <c r="C28" t="s">
         <v>88</v>
       </c>
       <c r="D28" s="2"/>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B29" s="1"/>
+      <c r="B29" s="3"/>
       <c r="C29" t="s">
         <v>89</v>
       </c>
       <c r="D29" s="2"/>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B30" s="1"/>
+      <c r="B30" s="3"/>
       <c r="C30" t="s">
         <v>90</v>
       </c>
       <c r="D30" s="2"/>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B31" s="1"/>
+      <c r="B31" s="3"/>
       <c r="C31" t="s">
         <v>91</v>
       </c>
       <c r="D31" s="2"/>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B32" s="1"/>
+      <c r="B32" s="3"/>
       <c r="C32" t="s">
         <v>92</v>
       </c>
       <c r="D32" s="2"/>
     </row>
     <row r="33" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="1" t="s">
+      <c r="B33" s="3" t="s">
         <v>93</v>
       </c>
       <c r="C33" t="s">
@@ -1830,42 +1830,42 @@
       </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B34" s="1"/>
+      <c r="B34" s="3"/>
       <c r="C34" t="s">
         <v>95</v>
       </c>
       <c r="D34" s="2"/>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B35" s="1"/>
+      <c r="B35" s="3"/>
       <c r="C35" t="s">
         <v>96</v>
       </c>
       <c r="D35" s="2"/>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B36" s="1"/>
+      <c r="B36" s="3"/>
       <c r="C36" t="s">
         <v>97</v>
       </c>
       <c r="D36" s="2"/>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B37" s="1"/>
+      <c r="B37" s="3"/>
       <c r="C37" t="s">
         <v>98</v>
       </c>
       <c r="D37" s="2"/>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B38" s="1"/>
+      <c r="B38" s="3"/>
       <c r="C38" t="s">
         <v>99</v>
       </c>
       <c r="D38" s="2"/>
     </row>
     <row r="39" spans="2:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="1" t="s">
+      <c r="B39" s="3" t="s">
         <v>100</v>
       </c>
       <c r="C39" t="s">
@@ -1876,42 +1876,42 @@
       </c>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B40" s="1"/>
+      <c r="B40" s="3"/>
       <c r="C40" t="s">
         <v>102</v>
       </c>
       <c r="D40" s="2"/>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B41" s="1"/>
+      <c r="B41" s="3"/>
       <c r="C41" t="s">
         <v>103</v>
       </c>
       <c r="D41" s="2"/>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B42" s="1"/>
+      <c r="B42" s="3"/>
       <c r="C42" t="s">
         <v>104</v>
       </c>
       <c r="D42" s="2"/>
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B43" s="1"/>
+      <c r="B43" s="3"/>
       <c r="C43" t="s">
         <v>105</v>
       </c>
       <c r="D43" s="2"/>
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B44" s="1"/>
+      <c r="B44" s="3"/>
       <c r="C44" t="s">
         <v>106</v>
       </c>
       <c r="D44" s="2"/>
     </row>
     <row r="45" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B45" s="1"/>
+      <c r="B45" s="3"/>
       <c r="C45" t="s">
         <v>107</v>
       </c>
@@ -1919,6 +1919,13 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B33:B38"/>
+    <mergeCell ref="B39:B45"/>
+    <mergeCell ref="B1:B5"/>
+    <mergeCell ref="B6:B16"/>
+    <mergeCell ref="B17:B23"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="B27:B32"/>
     <mergeCell ref="D33:D38"/>
     <mergeCell ref="D39:D45"/>
     <mergeCell ref="D1:D5"/>
@@ -1926,13 +1933,6 @@
     <mergeCell ref="D17:D23"/>
     <mergeCell ref="D24:D26"/>
     <mergeCell ref="D27:D32"/>
-    <mergeCell ref="B33:B38"/>
-    <mergeCell ref="B39:B45"/>
-    <mergeCell ref="B1:B5"/>
-    <mergeCell ref="B6:B16"/>
-    <mergeCell ref="B17:B23"/>
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="B27:B32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1942,18 +1942,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{066F3D06-EDD1-4A53-BF93-E9AA872A3AE3}">
   <dimension ref="B1:I44"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="27" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" style="3"/>
+    <col min="4" max="4" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>108</v>
       </c>
       <c r="C1" t="s">
@@ -1967,35 +1967,35 @@
       </c>
     </row>
     <row r="2" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B2" s="1"/>
+      <c r="B2" s="3"/>
       <c r="C2" t="s">
         <v>110</v>
       </c>
       <c r="D2" s="2"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B3" s="1"/>
+      <c r="B3" s="3"/>
       <c r="C3" t="s">
         <v>111</v>
       </c>
       <c r="D3" s="2"/>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B4" s="1"/>
+      <c r="B4" s="3"/>
       <c r="C4" t="s">
         <v>112</v>
       </c>
       <c r="D4" s="2"/>
     </row>
     <row r="5" spans="2:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="1"/>
+      <c r="B5" s="3"/>
       <c r="C5" t="s">
         <v>121</v>
       </c>
       <c r="D5" s="2"/>
     </row>
     <row r="6" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="3" t="s">
         <v>113</v>
       </c>
       <c r="C6" t="s">
@@ -2006,49 +2006,49 @@
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B7" s="1"/>
+      <c r="B7" s="3"/>
       <c r="C7" t="s">
         <v>115</v>
       </c>
       <c r="D7" s="2"/>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B8" s="1"/>
+      <c r="B8" s="3"/>
       <c r="C8" t="s">
         <v>116</v>
       </c>
       <c r="D8" s="2"/>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B9" s="1"/>
+      <c r="B9" s="3"/>
       <c r="C9" t="s">
         <v>117</v>
       </c>
       <c r="D9" s="2"/>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B10" s="1"/>
+      <c r="B10" s="3"/>
       <c r="C10" t="s">
         <v>118</v>
       </c>
       <c r="D10" s="2"/>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B11" s="1"/>
+      <c r="B11" s="3"/>
       <c r="C11" t="s">
         <v>119</v>
       </c>
       <c r="D11" s="2"/>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B12" s="1"/>
+      <c r="B12" s="3"/>
       <c r="C12" t="s">
         <v>120</v>
       </c>
       <c r="D12" s="2"/>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="3" t="s">
         <v>123</v>
       </c>
       <c r="C13" t="s">
@@ -2059,84 +2059,84 @@
       </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B14" s="1"/>
+      <c r="B14" s="3"/>
       <c r="C14" t="s">
         <v>125</v>
       </c>
       <c r="D14" s="2"/>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B15" s="1"/>
+      <c r="B15" s="3"/>
       <c r="C15" t="s">
         <v>126</v>
       </c>
       <c r="D15" s="2"/>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B16" s="1"/>
+      <c r="B16" s="3"/>
       <c r="C16" t="s">
         <v>127</v>
       </c>
       <c r="D16" s="2"/>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B17" s="1"/>
+      <c r="B17" s="3"/>
       <c r="C17" t="s">
         <v>128</v>
       </c>
       <c r="D17" s="2"/>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B18" s="1"/>
+      <c r="B18" s="3"/>
       <c r="C18" t="s">
         <v>129</v>
       </c>
       <c r="D18" s="2"/>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B19" s="1"/>
+      <c r="B19" s="3"/>
       <c r="C19" t="s">
         <v>130</v>
       </c>
       <c r="D19" s="2"/>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B20" s="1"/>
+      <c r="B20" s="3"/>
       <c r="C20" t="s">
         <v>131</v>
       </c>
       <c r="D20" s="2"/>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B21" s="1"/>
+      <c r="B21" s="3"/>
       <c r="C21" t="s">
         <v>132</v>
       </c>
       <c r="D21" s="2"/>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B22" s="1"/>
+      <c r="B22" s="3"/>
       <c r="C22" t="s">
         <v>133</v>
       </c>
       <c r="D22" s="2"/>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B23" s="1"/>
+      <c r="B23" s="3"/>
       <c r="C23" t="s">
         <v>134</v>
       </c>
       <c r="D23" s="2"/>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B24" s="1"/>
+      <c r="B24" s="3"/>
       <c r="C24" t="s">
         <v>135</v>
       </c>
       <c r="D24" s="2"/>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B25" s="1" t="s">
+      <c r="B25" s="3" t="s">
         <v>136</v>
       </c>
       <c r="C25" t="s">
@@ -2147,133 +2147,133 @@
       </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B26" s="1"/>
+      <c r="B26" s="3"/>
       <c r="C26" t="s">
         <v>138</v>
       </c>
       <c r="D26" s="2"/>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B27" s="1"/>
+      <c r="B27" s="3"/>
       <c r="C27" t="s">
         <v>139</v>
       </c>
       <c r="D27" s="2"/>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B28" s="1"/>
+      <c r="B28" s="3"/>
       <c r="C28" t="s">
         <v>140</v>
       </c>
       <c r="D28" s="2"/>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B29" s="1"/>
+      <c r="B29" s="3"/>
       <c r="C29" t="s">
         <v>141</v>
       </c>
       <c r="D29" s="2"/>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B30" s="1"/>
+      <c r="B30" s="3"/>
       <c r="C30" t="s">
         <v>142</v>
       </c>
       <c r="D30" s="2"/>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B31" s="1"/>
+      <c r="B31" s="3"/>
       <c r="C31" t="s">
         <v>143</v>
       </c>
       <c r="D31" s="2"/>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B32" s="1"/>
+      <c r="B32" s="3"/>
       <c r="C32" t="s">
         <v>144</v>
       </c>
       <c r="D32" s="2"/>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B33" s="1"/>
+      <c r="B33" s="3"/>
       <c r="C33" t="s">
         <v>145</v>
       </c>
       <c r="D33" s="2"/>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B34" s="1"/>
+      <c r="B34" s="3"/>
       <c r="C34" t="s">
         <v>146</v>
       </c>
       <c r="D34" s="2"/>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B35" s="1"/>
+      <c r="B35" s="3"/>
       <c r="C35" t="s">
         <v>147</v>
       </c>
       <c r="D35" s="2"/>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B36" s="1"/>
+      <c r="B36" s="3"/>
       <c r="C36" t="s">
         <v>148</v>
       </c>
       <c r="D36" s="2"/>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B37" s="1"/>
+      <c r="B37" s="3"/>
       <c r="C37" t="s">
         <v>149</v>
       </c>
       <c r="D37" s="2"/>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B38" s="1"/>
+      <c r="B38" s="3"/>
       <c r="C38" t="s">
         <v>150</v>
       </c>
       <c r="D38" s="2"/>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B39" s="1"/>
+      <c r="B39" s="3"/>
       <c r="C39" t="s">
         <v>151</v>
       </c>
       <c r="D39" s="2"/>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B40" s="1"/>
+      <c r="B40" s="3"/>
       <c r="C40" t="s">
         <v>152</v>
       </c>
       <c r="D40" s="2"/>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B41" s="1"/>
+      <c r="B41" s="3"/>
       <c r="C41" t="s">
         <v>153</v>
       </c>
       <c r="D41" s="2"/>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B42" s="1"/>
+      <c r="B42" s="3"/>
       <c r="C42" t="s">
         <v>154</v>
       </c>
       <c r="D42" s="2"/>
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B43" s="1"/>
+      <c r="B43" s="3"/>
       <c r="C43" t="s">
         <v>155</v>
       </c>
       <c r="D43" s="2"/>
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B44" s="1"/>
+      <c r="B44" s="3"/>
       <c r="C44" t="s">
         <v>156</v>
       </c>
@@ -2298,18 +2298,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4658189D-5046-4B82-97BB-16775F9A7B5B}">
   <dimension ref="B1:F55"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C58" sqref="C58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="33.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" style="3"/>
+    <col min="4" max="4" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>157</v>
       </c>
       <c r="C1" t="s">
@@ -2323,84 +2323,84 @@
       </c>
     </row>
     <row r="2" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B2" s="1"/>
+      <c r="B2" s="3"/>
       <c r="C2" t="s">
         <v>159</v>
       </c>
       <c r="D2" s="2"/>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B3" s="1"/>
+      <c r="B3" s="3"/>
       <c r="C3" t="s">
         <v>160</v>
       </c>
       <c r="D3" s="2"/>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B4" s="1"/>
+      <c r="B4" s="3"/>
       <c r="C4" t="s">
         <v>161</v>
       </c>
       <c r="D4" s="2"/>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B5" s="1"/>
+      <c r="B5" s="3"/>
       <c r="C5" t="s">
         <v>162</v>
       </c>
       <c r="D5" s="2"/>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="1"/>
+      <c r="B6" s="3"/>
       <c r="C6" t="s">
         <v>163</v>
       </c>
       <c r="D6" s="2"/>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="1"/>
+      <c r="B7" s="3"/>
       <c r="C7" t="s">
         <v>164</v>
       </c>
       <c r="D7" s="2"/>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="1"/>
+      <c r="B8" s="3"/>
       <c r="C8" t="s">
         <v>165</v>
       </c>
       <c r="D8" s="2"/>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B9" s="1"/>
+      <c r="B9" s="3"/>
       <c r="C9" t="s">
         <v>166</v>
       </c>
       <c r="D9" s="2"/>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B10" s="1"/>
+      <c r="B10" s="3"/>
       <c r="C10" t="s">
         <v>167</v>
       </c>
       <c r="D10" s="2"/>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B11" s="1"/>
+      <c r="B11" s="3"/>
       <c r="C11" t="s">
         <v>168</v>
       </c>
       <c r="D11" s="2"/>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B12" s="1"/>
+      <c r="B12" s="3"/>
       <c r="C12" t="s">
         <v>169</v>
       </c>
       <c r="D12" s="2"/>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="3" t="s">
         <v>170</v>
       </c>
       <c r="C13" t="s">
@@ -2411,105 +2411,105 @@
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B14" s="1"/>
+      <c r="B14" s="3"/>
       <c r="C14" t="s">
         <v>172</v>
       </c>
       <c r="D14" s="2"/>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B15" s="1"/>
+      <c r="B15" s="3"/>
       <c r="C15" t="s">
         <v>173</v>
       </c>
       <c r="D15" s="2"/>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B16" s="1"/>
+      <c r="B16" s="3"/>
       <c r="C16" t="s">
         <v>174</v>
       </c>
       <c r="D16" s="2"/>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B17" s="1"/>
+      <c r="B17" s="3"/>
       <c r="C17" t="s">
         <v>175</v>
       </c>
       <c r="D17" s="2"/>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B18" s="1"/>
+      <c r="B18" s="3"/>
       <c r="C18" t="s">
         <v>176</v>
       </c>
       <c r="D18" s="2"/>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B19" s="1"/>
+      <c r="B19" s="3"/>
       <c r="C19" t="s">
         <v>177</v>
       </c>
       <c r="D19" s="2"/>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B20" s="1"/>
+      <c r="B20" s="3"/>
       <c r="C20" t="s">
         <v>178</v>
       </c>
       <c r="D20" s="2"/>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B21" s="1"/>
+      <c r="B21" s="3"/>
       <c r="C21" t="s">
         <v>179</v>
       </c>
       <c r="D21" s="2"/>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B22" s="1"/>
+      <c r="B22" s="3"/>
       <c r="C22" t="s">
         <v>180</v>
       </c>
       <c r="D22" s="2"/>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B23" s="1"/>
+      <c r="B23" s="3"/>
       <c r="C23" t="s">
         <v>181</v>
       </c>
       <c r="D23" s="2"/>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B24" s="1"/>
+      <c r="B24" s="3"/>
       <c r="C24" t="s">
         <v>182</v>
       </c>
       <c r="D24" s="2"/>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B25" s="1"/>
+      <c r="B25" s="3"/>
       <c r="C25" t="s">
         <v>183</v>
       </c>
       <c r="D25" s="2"/>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B26" s="1"/>
+      <c r="B26" s="3"/>
       <c r="C26" t="s">
         <v>184</v>
       </c>
       <c r="D26" s="2"/>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B27" s="1"/>
+      <c r="B27" s="3"/>
       <c r="C27" t="s">
         <v>185</v>
       </c>
       <c r="D27" s="2"/>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B28" s="1" t="s">
+      <c r="B28" s="3" t="s">
         <v>186</v>
       </c>
       <c r="C28" t="s">
@@ -2520,84 +2520,84 @@
       </c>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B29" s="1"/>
+      <c r="B29" s="3"/>
       <c r="C29" t="s">
         <v>188</v>
       </c>
       <c r="D29" s="2"/>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B30" s="1"/>
+      <c r="B30" s="3"/>
       <c r="C30" t="s">
         <v>189</v>
       </c>
       <c r="D30" s="2"/>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B31" s="1"/>
+      <c r="B31" s="3"/>
       <c r="C31" t="s">
         <v>190</v>
       </c>
       <c r="D31" s="2"/>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B32" s="1"/>
+      <c r="B32" s="3"/>
       <c r="C32" t="s">
         <v>191</v>
       </c>
       <c r="D32" s="2"/>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B33" s="1"/>
+      <c r="B33" s="3"/>
       <c r="C33" t="s">
         <v>192</v>
       </c>
       <c r="D33" s="2"/>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B34" s="1"/>
+      <c r="B34" s="3"/>
       <c r="C34" t="s">
         <v>193</v>
       </c>
       <c r="D34" s="2"/>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B35" s="1"/>
+      <c r="B35" s="3"/>
       <c r="C35" t="s">
         <v>194</v>
       </c>
       <c r="D35" s="2"/>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B36" s="1"/>
+      <c r="B36" s="3"/>
       <c r="C36" t="s">
         <v>195</v>
       </c>
       <c r="D36" s="2"/>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B37" s="1"/>
+      <c r="B37" s="3"/>
       <c r="C37" t="s">
         <v>196</v>
       </c>
       <c r="D37" s="2"/>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B38" s="1"/>
+      <c r="B38" s="3"/>
       <c r="C38" t="s">
         <v>197</v>
       </c>
       <c r="D38" s="2"/>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B39" s="1"/>
+      <c r="B39" s="3"/>
       <c r="C39" t="s">
         <v>198</v>
       </c>
       <c r="D39" s="2"/>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B40" s="1" t="s">
+      <c r="B40" s="3" t="s">
         <v>199</v>
       </c>
       <c r="C40" t="s">
@@ -2608,77 +2608,77 @@
       </c>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B41" s="1"/>
+      <c r="B41" s="3"/>
       <c r="C41" t="s">
         <v>201</v>
       </c>
       <c r="D41" s="2"/>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B42" s="1"/>
+      <c r="B42" s="3"/>
       <c r="C42" t="s">
         <v>202</v>
       </c>
       <c r="D42" s="2"/>
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B43" s="1"/>
+      <c r="B43" s="3"/>
       <c r="C43" t="s">
         <v>203</v>
       </c>
       <c r="D43" s="2"/>
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B44" s="1"/>
+      <c r="B44" s="3"/>
       <c r="C44" t="s">
         <v>204</v>
       </c>
       <c r="D44" s="2"/>
     </row>
     <row r="45" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B45" s="1"/>
+      <c r="B45" s="3"/>
       <c r="C45" t="s">
         <v>205</v>
       </c>
       <c r="D45" s="2"/>
     </row>
     <row r="46" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B46" s="1"/>
+      <c r="B46" s="3"/>
       <c r="C46" t="s">
         <v>206</v>
       </c>
       <c r="D46" s="2"/>
     </row>
     <row r="47" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B47" s="1"/>
+      <c r="B47" s="3"/>
       <c r="C47" t="s">
         <v>207</v>
       </c>
       <c r="D47" s="2"/>
     </row>
     <row r="48" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B48" s="1"/>
+      <c r="B48" s="3"/>
       <c r="C48" t="s">
         <v>208</v>
       </c>
       <c r="D48" s="2"/>
     </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B49" s="1"/>
+      <c r="B49" s="3"/>
       <c r="C49" t="s">
         <v>209</v>
       </c>
       <c r="D49" s="2"/>
     </row>
     <row r="50" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B50" s="1"/>
+      <c r="B50" s="3"/>
       <c r="C50" t="s">
         <v>210</v>
       </c>
       <c r="D50" s="2"/>
     </row>
     <row r="51" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B51" s="1" t="s">
+      <c r="B51" s="3" t="s">
         <v>211</v>
       </c>
       <c r="C51" t="s">
@@ -2689,28 +2689,28 @@
       </c>
     </row>
     <row r="52" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B52" s="1"/>
+      <c r="B52" s="3"/>
       <c r="C52" t="s">
         <v>212</v>
       </c>
       <c r="D52" s="2"/>
     </row>
     <row r="53" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B53" s="1"/>
+      <c r="B53" s="3"/>
       <c r="C53" t="s">
         <v>213</v>
       </c>
       <c r="D53" s="2"/>
     </row>
     <row r="54" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B54" s="1"/>
+      <c r="B54" s="3"/>
       <c r="C54" t="s">
         <v>214</v>
       </c>
       <c r="D54" s="2"/>
     </row>
     <row r="55" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B55" s="1"/>
+      <c r="B55" s="3"/>
       <c r="C55" t="s">
         <v>215</v>
       </c>
@@ -2718,16 +2718,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B1:B12"/>
+    <mergeCell ref="B13:B27"/>
+    <mergeCell ref="B28:B39"/>
+    <mergeCell ref="B40:B50"/>
+    <mergeCell ref="B51:B55"/>
     <mergeCell ref="D1:D12"/>
     <mergeCell ref="D13:D27"/>
     <mergeCell ref="D28:D39"/>
     <mergeCell ref="D40:D50"/>
     <mergeCell ref="D51:D55"/>
-    <mergeCell ref="B1:B12"/>
-    <mergeCell ref="B13:B27"/>
-    <mergeCell ref="B28:B39"/>
-    <mergeCell ref="B40:B50"/>
-    <mergeCell ref="B51:B55"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2738,7 +2738,7 @@
   <dimension ref="G1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
